--- a/specs/仕様書.xlsx
+++ b/specs/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prj\tools\short-bread\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681D600-1188-44D9-A057-3A6F47D574F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E24256-DCB6-4779-9DFE-B064F98C3995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ワークスペース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -276,26 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カードをまとめたもの、カードは必ずグループに所属する</t>
-    <rPh sb="15" eb="16">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループをまとめたもの、グループは必ずワークスペースに所属する</t>
-    <rPh sb="17" eb="18">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面構成</t>
     <rPh sb="0" eb="4">
       <t>ガメンコウセイ</t>
@@ -355,38 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択しているワークスペースに所属しているグループを一覧で表示する</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択しているグループに所属しているカードを一覧で表示する</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右枠</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -441,6 +385,62 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードをまとめたもの、カードは必ずボックスに所属する</t>
+    <rPh sb="15" eb="16">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択しているワークスペースに所属しているボックスを一覧で表示する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択しているボックスに所属しているカードを一覧で表示する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボックスをまとめたもの、ボックスは必ずワークスペースに所属する</t>
+    <rPh sb="17" eb="18">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,22 +654,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B8E44F-57D0-405C-B0F7-A7C51BE7D71F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B1F283-ECD6-4B99-BE89-13E4C8BD8F7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -691,7 +691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="857250"/>
+          <a:off x="752475" y="1123950"/>
           <a:ext cx="7343775" cy="4391025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8C984A-915C-4939-8815-114066A82FCF}">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1095,33 +1095,33 @@
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="19.5" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="24.75" thickBot="1">
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>21</v>
@@ -1130,46 +1130,46 @@
     <row r="34" spans="2:3">
       <c r="B34" s="12"/>
       <c r="C34" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="12"/>
       <c r="C35" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="12"/>
       <c r="C37" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="19.5" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="19.5" thickBot="1">
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:3">
